--- a/Rasp/Готовый/shabaud.xlsx
+++ b/Rasp/Готовый/shabaud.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$G$14</definedName>
+  </definedNames>
+  <calcPr calcId="144525" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,24 +27,6 @@
     <t>Ауд.</t>
   </si>
   <si>
-    <t xml:space="preserve">1-ая пара 8:00-9:35    </t>
-  </si>
-  <si>
-    <t>2-ая пара 9:45-11:20</t>
-  </si>
-  <si>
-    <t>3-ая пара 12:00-13:35</t>
-  </si>
-  <si>
-    <t>4-ая пара 13:45-15:20</t>
-  </si>
-  <si>
-    <t>5-ая пара 15:25-17:00</t>
-  </si>
-  <si>
-    <t>6-ая пара 17:05-18:40</t>
-  </si>
-  <si>
     <t>Втр</t>
   </si>
   <si>
@@ -58,12 +43,30 @@
   </si>
   <si>
     <t>Сбт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-ая пара 9:00-10:35    </t>
+  </si>
+  <si>
+    <t>2-ая пара 10:45-12:20</t>
+  </si>
+  <si>
+    <t>3-ая пара 13:00-14:35</t>
+  </si>
+  <si>
+    <t>4-ая пара 14:45-16:20</t>
+  </si>
+  <si>
+    <t>5-ая пара 16:25-18:00</t>
+  </si>
+  <si>
+    <t>6-ая пара 18:05-19:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,13 +92,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -129,28 +132,235 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -211,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -246,7 +456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -423,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,161 +643,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="7" width="19.140625" customWidth="1"/>
+    <col min="2" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -605,7 +815,7 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>